--- a/SKX.xlsx
+++ b/SKX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C6407-4335-4A59-834F-23CF621B6400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695EB5A5-238C-4799-A86C-9034C55EC3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{DCDCFE40-F9A0-491E-BE92-52CF71C4A29F}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{DCDCFE40-F9A0-491E-BE92-52CF71C4A29F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Skechers Inc</t>
   </si>
@@ -212,6 +212,15 @@
   <si>
     <t>DTC Growth</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Aquired by 3G Capital for 9.4 billion USD</t>
+  </si>
+  <si>
+    <t>Partnership with Harry Kane -&gt; investments in football shoes</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +260,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +292,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -287,8 +305,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -625,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65BB682-57DF-432C-ABC5-111521496BAD}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +734,21 @@
       <c r="I7" s="5">
         <f>I4-I5+I6</f>
         <v>8279.7465584000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1098,53 +1130,51 @@
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <f t="shared" ref="C11:I11" si="0">C9-C10</f>
         <v>978.57900000000006</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>1060.5240000000001</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <f t="shared" ref="E11" si="1">E9-E10</f>
         <v>1071.9180000000001</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>1181.634</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>1184.4369999999999</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>1223.0459999999998</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <f>J9-J10</f>
         <v>0</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1217,38 +1247,38 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <f t="shared" ref="C14:F14" si="2">C11-SUM(C12:C13)</f>
         <v>223.57700000000011</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <f t="shared" si="2"/>
         <v>217.73300000000017</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <f t="shared" ref="E14" si="3">E11-SUM(E12:E13)</f>
         <v>213.18300000000022</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <f>G11-SUM(G12:G13)</f>
         <v>298.798</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <f t="shared" ref="H14:J14" si="4">H11-SUM(H12:H13)</f>
         <v>206.53099999999995</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="5">
         <f t="shared" si="4"/>
         <v>233.42399999999975</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1463,38 +1493,38 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <f>C18-C19</f>
         <v>160.4430000000001</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="5">
         <f t="shared" ref="D20:F20" si="11">D18-D19</f>
         <v>152.75900000000016</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="5">
         <f t="shared" ref="E20" si="12">E18-E19</f>
         <v>145.41500000000022</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="5">
         <f>G18-G19</f>
         <v>206.62199999999999</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="5">
         <f t="shared" ref="H20:J20" si="13">H18-H19</f>
         <v>140.30199999999996</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="5">
         <f t="shared" si="13"/>
         <v>193.22099999999975</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
